--- a/DATA_goal/Junction_Flooding_386.xlsx
+++ b/DATA_goal/Junction_Flooding_386.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -462,18 +462,18 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.26</v>
+        <v>22.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>89.95</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.87</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.11</v>
+        <v>21.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.5</v>
+        <v>14.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.56</v>
+        <v>55.6</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.56</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.53</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_386.xlsx
+++ b/DATA_goal/Junction_Flooding_386.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45067.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45067.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.89</v>
+        <v>21.859</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.98</v>
+        <v>15.593</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.66</v>
+        <v>1.208</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.4</v>
+        <v>45.641</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.86</v>
+        <v>36.669</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.67</v>
+        <v>15.605</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.64</v>
+        <v>56.186</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.66</v>
+        <v>24.464</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.77</v>
+        <v>10.811</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.17</v>
+        <v>16.225</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.92</v>
+        <v>18.017</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.71</v>
+        <v>20.235</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.58</v>
+        <v>5.185</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.39</v>
+        <v>15.399</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.66</v>
+        <v>22.975</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.5</v>
+        <v>13.271</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.766</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.468</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>89.95</v>
+        <v>238.321</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.86</v>
+        <v>44.985</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.9</v>
+        <v>15.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.57</v>
+        <v>30.725</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.58</v>
+        <v>16.378</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.87</v>
+        <v>2.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.58</v>
+        <v>28.047</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.91</v>
+        <v>13.145</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.98</v>
+        <v>11.009</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.93</v>
+        <v>13.731</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.98</v>
+        <v>19.192</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.07</v>
+        <v>49.709</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.64</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.07</v>
+        <v>18.299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45067.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.61</v>
+        <v>8.436</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.48</v>
+        <v>5.87</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.571</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.26</v>
+        <v>17.18</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.06</v>
+        <v>13.542</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.23</v>
+        <v>5.614</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.91</v>
+        <v>27.83</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.65</v>
+        <v>8.971</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.91</v>
+        <v>3.907</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.52</v>
+        <v>5.863</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.07</v>
+        <v>6.705</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.57</v>
+        <v>7.828</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.59</v>
+        <v>1.935</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.76</v>
+        <v>5.474</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.06</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.29</v>
+        <v>4.922</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.463</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.102</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.91</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.62</v>
+        <v>16.983</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.47</v>
+        <v>5.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.84</v>
+        <v>11.7</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.92</v>
+        <v>6.216</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.785</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.48</v>
+        <v>12.811</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.86</v>
+        <v>4.89</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3</v>
+        <v>3.931</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.55</v>
+        <v>5.167</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.71</v>
+        <v>7.212</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.99</v>
+        <v>24.868</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.17</v>
+        <v>2.958</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.13</v>
+        <v>6.711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45067.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.13</v>
+        <v>10.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.86</v>
+        <v>7.31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.38</v>
+        <v>21.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.06</v>
+        <v>17.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.73</v>
+        <v>7.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.08</v>
+        <v>29.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.26</v>
+        <v>11.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.1</v>
+        <v>4.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.97</v>
+        <v>7.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.53</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5</v>
+        <v>9.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.62</v>
+        <v>2.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.14</v>
+        <v>7.1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.64</v>
+        <v>10.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.58</v>
+        <v>6.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.6</v>
+        <v>106.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.56</v>
+        <v>20.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.82</v>
+        <v>7.13</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.53</v>
+        <v>14.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.24</v>
+        <v>7.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.98</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>14.08</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.21</v>
+        <v>6.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.21</v>
+        <v>5.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.78</v>
+        <v>6.42</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.06</v>
+        <v>8.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.83</v>
+        <v>26.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.33</v>
+        <v>3.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.04</v>
+        <v>8.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_386.xlsx
+++ b/DATA_goal/Junction_Flooding_386.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45067.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45067.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.859</v>
+        <v>7.888</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.593</v>
+        <v>5.978</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.208</v>
+        <v>0.663</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.641</v>
+        <v>17.396</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.669</v>
+        <v>13.862</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.605</v>
+        <v>5.666</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.186</v>
+        <v>22.645</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.464</v>
+        <v>9.66</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.811</v>
+        <v>4.77</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.225</v>
+        <v>6.166</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.017</v>
+        <v>6.925</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.235</v>
+        <v>7.713</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.185</v>
+        <v>2.577</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.399</v>
+        <v>6.391</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.975</v>
+        <v>8.661</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.271</v>
+        <v>5.497</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.766</v>
+        <v>0.215</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.468</v>
+        <v>0.589</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.321</v>
+        <v>89.94499999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.985</v>
+        <v>17.859</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.36</v>
+        <v>5.899</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.725</v>
+        <v>11.568</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.378</v>
+        <v>6.575</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.11</v>
+        <v>0.868</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.047</v>
+        <v>12.578</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.145</v>
+        <v>4.912</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.009</v>
+        <v>4.975</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.731</v>
+        <v>5.932</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.192</v>
+        <v>7.979</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.709</v>
+        <v>21.074</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.204000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.299</v>
+        <v>7.073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45067.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.436</v>
+        <v>4.608</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.87</v>
+        <v>3.477</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.571</v>
+        <v>0.406</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.18</v>
+        <v>10.259</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.542</v>
+        <v>8.058999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.614</v>
+        <v>3.233</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.83</v>
+        <v>15.909</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.971</v>
+        <v>5.647</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.907</v>
+        <v>2.91</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.863</v>
+        <v>3.519</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.705</v>
+        <v>4.073</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.828</v>
+        <v>4.575</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.935</v>
+        <v>1.587</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.474</v>
+        <v>3.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.601000000000001</v>
+        <v>5.06</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.922</v>
+        <v>3.291</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.463</v>
+        <v>0.115</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.102</v>
+        <v>0.371</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.01000000000001</v>
+        <v>49.909</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.983</v>
+        <v>10.621</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.817</v>
+        <v>3.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.7</v>
+        <v>6.837</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.216</v>
+        <v>3.92</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.785</v>
+        <v>0.507</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.811</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.89</v>
+        <v>2.859</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.931</v>
+        <v>2.999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.167</v>
+        <v>3.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.212</v>
+        <v>4.709</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.868</v>
+        <v>14.985</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.958</v>
+        <v>2.174</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.711</v>
+        <v>4.132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45067.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.15</v>
+        <v>5.133</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.31</v>
+        <v>3.859</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.356</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.24</v>
+        <v>11.377</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.08</v>
+        <v>9.055999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.23</v>
+        <v>3.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.83</v>
+        <v>16.076</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.4</v>
+        <v>6.263</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.98</v>
+        <v>3.104</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.51</v>
+        <v>3.966</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>4.533</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.41</v>
+        <v>4.995</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.41</v>
+        <v>1.621</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.1</v>
+        <v>4.136</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.72</v>
+        <v>5.636</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.19</v>
+        <v>3.579</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.327</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>106.93</v>
+        <v>55.604</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>20.99</v>
+        <v>11.558</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.13</v>
+        <v>3.817</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.35</v>
+        <v>7.531</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.63</v>
+        <v>4.24</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.08</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.12</v>
+        <v>3.215</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.1</v>
+        <v>3.208</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.42</v>
+        <v>3.779</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.93</v>
+        <v>5.065</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.342</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.38</v>
+        <v>14.832</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.8</v>
+        <v>2.328</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.51</v>
+        <v>4.614</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_386.xlsx
+++ b/DATA_goal/Junction_Flooding_386.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45067.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45067.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.888</v>
+        <v>21.859</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.978</v>
+        <v>15.593</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.663</v>
+        <v>1.208</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.396</v>
+        <v>45.641</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.862</v>
+        <v>36.669</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.666</v>
+        <v>15.605</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.645</v>
+        <v>56.186</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.66</v>
+        <v>24.464</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.77</v>
+        <v>10.811</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.166</v>
+        <v>16.225</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.925</v>
+        <v>18.017</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.713</v>
+        <v>20.235</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.577</v>
+        <v>5.185</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.391</v>
+        <v>15.399</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.661</v>
+        <v>22.975</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.497</v>
+        <v>13.271</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.215</v>
+        <v>0.766</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.589</v>
+        <v>0.468</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>89.94499999999999</v>
+        <v>238.321</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.859</v>
+        <v>44.985</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.899</v>
+        <v>15.36</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.568</v>
+        <v>30.725</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.575</v>
+        <v>16.378</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.868</v>
+        <v>2.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.578</v>
+        <v>28.047</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.912</v>
+        <v>13.145</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.975</v>
+        <v>11.009</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.932</v>
+        <v>13.731</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.979</v>
+        <v>19.192</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.074</v>
+        <v>49.709</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.64</v>
+        <v>8.204000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.073</v>
+        <v>18.299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45067.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.608</v>
+        <v>8.436</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.477</v>
+        <v>5.87</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.406</v>
+        <v>0.571</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.259</v>
+        <v>17.18</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.058999999999999</v>
+        <v>13.542</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.233</v>
+        <v>5.614</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.909</v>
+        <v>27.83</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.647</v>
+        <v>8.971</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.91</v>
+        <v>3.907</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.519</v>
+        <v>5.863</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.073</v>
+        <v>6.705</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.575</v>
+        <v>7.828</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.587</v>
+        <v>1.935</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.76</v>
+        <v>5.474</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.06</v>
+        <v>8.601000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.291</v>
+        <v>4.922</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.115</v>
+        <v>0.463</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.371</v>
+        <v>0.102</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.909</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.621</v>
+        <v>16.983</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.47</v>
+        <v>5.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.837</v>
+        <v>11.7</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.92</v>
+        <v>6.216</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.507</v>
+        <v>0.785</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.481999999999999</v>
+        <v>12.811</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.859</v>
+        <v>4.89</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.999</v>
+        <v>3.931</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.55</v>
+        <v>5.167</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.709</v>
+        <v>7.212</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.985</v>
+        <v>24.868</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.174</v>
+        <v>2.958</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.132</v>
+        <v>6.711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45067.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.133</v>
+        <v>10.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.859</v>
+        <v>7.31</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.356</v>
+        <v>0.54</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.377</v>
+        <v>21.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.055999999999999</v>
+        <v>17.08</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.73</v>
+        <v>7.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.076</v>
+        <v>29.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.263</v>
+        <v>11.4</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.104</v>
+        <v>4.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.966</v>
+        <v>7.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.533</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.995</v>
+        <v>9.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.621</v>
+        <v>2.41</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.136</v>
+        <v>7.1</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.636</v>
+        <v>10.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.579</v>
+        <v>6.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.604</v>
+        <v>106.93</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.558</v>
+        <v>20.99</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.817</v>
+        <v>7.13</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.531</v>
+        <v>14.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.24</v>
+        <v>7.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.98</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>14.08</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.215</v>
+        <v>6.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.208</v>
+        <v>5.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.779</v>
+        <v>6.42</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.065</v>
+        <v>8.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.342</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.832</v>
+        <v>26.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.328</v>
+        <v>3.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.614</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.04</v>
+        <v>8.51</v>
       </c>
     </row>
   </sheetData>
